--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="3940" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="levelconfig" sheetId="1" r:id="rId1"/>
@@ -27,82 +27,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-a1</t>
+  </si>
+  <si>
+    <t>Level-a3</t>
+  </si>
+  <si>
+    <t>Level-a2</t>
+  </si>
+  <si>
+    <t>Level-c2-2-0920</t>
+  </si>
+  <si>
+    <t>Level-c2-2</t>
+  </si>
+  <si>
+    <t>Level4</t>
+  </si>
+  <si>
+    <t>Level-e1</t>
+  </si>
+  <si>
+    <t>Level5</t>
+  </si>
+  <si>
+    <t>Level6</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Level-c3-3-0920</t>
+  </si>
+  <si>
+    <t>Level-c3-3-0922</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>Level-c3-2-0922</t>
+  </si>
+  <si>
+    <t>Level-c3-4-0920</t>
+  </si>
+  <si>
+    <t>Level7</t>
+  </si>
+  <si>
+    <t>Level-c4-3.5-1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level8</t>
+  </si>
+  <si>
+    <t>Level-c4-4.5-1006</t>
+  </si>
+  <si>
+    <t>Level-ct3-2.5-1007</t>
+  </si>
+  <si>
+    <t>Level-ct3-2-1007</t>
+  </si>
+  <si>
+    <t>Level-t1</t>
+  </si>
+  <si>
+    <t>Level-treasure</t>
+  </si>
+  <si>
+    <t>Level-t3</t>
+  </si>
   <si>
     <t>__type__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>__name__</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-a1</t>
-  </si>
-  <si>
-    <t>Level-a3</t>
-  </si>
-  <si>
-    <t>Level-a2</t>
-  </si>
-  <si>
-    <t>Level-c2-2-0920</t>
-  </si>
-  <si>
-    <t>Level-c2-2</t>
-  </si>
-  <si>
-    <t>Level4</t>
-  </si>
-  <si>
-    <t>Level-e1</t>
-  </si>
-  <si>
-    <t>Level5</t>
-  </si>
-  <si>
-    <t>Level6</t>
-  </si>
-  <si>
-    <t>Level2</t>
-  </si>
-  <si>
-    <t>Level-c3-3-0920</t>
-  </si>
-  <si>
-    <t>Level-c3-3-0922</t>
-  </si>
-  <si>
-    <t>Level3</t>
-  </si>
-  <si>
-    <t>Level-c3-2-0922</t>
-  </si>
-  <si>
-    <t>Level-c3-4-0920</t>
-  </si>
-  <si>
-    <t>Level7</t>
   </si>
 </sst>
 </file>
@@ -448,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,27 +486,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -492,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -503,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -514,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -525,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -547,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -558,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -569,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -580,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -591,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -602,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -613,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -624,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -635,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -646,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,7 +682,106 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="3940" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="14740" yWindow="1740" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="levelconfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,6 +128,21 @@
   <si>
     <t>__name__</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-4-1007</t>
+  </si>
+  <si>
+    <t>Level-ct4-3-1013-2</t>
+  </si>
+  <si>
+    <t>Level-ct4-4-1122</t>
+  </si>
+  <si>
+    <t>Level-ct4a-3.5-1125</t>
+  </si>
+  <si>
+    <t>Level-ct4a-5-1125</t>
   </si>
 </sst>
 </file>
@@ -473,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B23" sqref="B23:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,6 +799,61 @@
         <v>28</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="1740" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="levelconfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,10 +97,6 @@
     <t>Level7</t>
   </si>
   <si>
-    <t>Level-c4-3.5-1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level8</t>
   </si>
   <si>
@@ -143,6 +139,15 @@
   </si>
   <si>
     <t>Level-ct4a-5-1125</t>
+  </si>
+  <si>
+    <t>Level-c4-3.5-1006</t>
+  </si>
+  <si>
+    <t>Level-ct4a-4-1201</t>
+  </si>
+  <si>
+    <t>Level-ct4a-4-1201-2</t>
   </si>
 </sst>
 </file>
@@ -215,7 +220,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -488,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B32"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +527,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -515,7 +541,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -631,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -642,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -653,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -675,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +778,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,7 +811,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,7 +866,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,11 +877,25 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C33">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,9 +52,6 @@
     <t>Level-a1</t>
   </si>
   <si>
-    <t>Level-a3</t>
-  </si>
-  <si>
     <t>Level-a2</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>Level-ct4a-4-1201-2</t>
+  </si>
+  <si>
+    <t>Level-c1-t0-1216</t>
+  </si>
+  <si>
+    <t>Level-c1-t1-1216</t>
+  </si>
+  <si>
+    <t>Level-c1-t2-1216</t>
   </si>
 </sst>
 </file>
@@ -220,17 +226,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -514,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B3" sqref="B3:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -541,7 +537,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -551,249 +547,249 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
@@ -804,97 +800,119 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="C6:C35">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Level-c1-t2-1216</t>
+  </si>
+  <si>
+    <t>Level-c2-t10-1216</t>
+  </si>
+  <si>
+    <t>Level-c2-2-1216</t>
+  </si>
+  <si>
+    <t>Level-c3-2-1216</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B35"/>
+      <selection activeCell="B32" sqref="B32:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -675,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -697,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -873,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,14 +915,44 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C35">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,6 +163,45 @@
   </si>
   <si>
     <t>Level-c3-2-1216</t>
+  </si>
+  <si>
+    <t>level-m1</t>
+  </si>
+  <si>
+    <t>level-m2</t>
+  </si>
+  <si>
+    <t>level-m3</t>
+  </si>
+  <si>
+    <t>level-m4</t>
+  </si>
+  <si>
+    <t>level-m5</t>
+  </si>
+  <si>
+    <t>level-m6</t>
+  </si>
+  <si>
+    <t>level-m7</t>
+  </si>
+  <si>
+    <t>level-m8</t>
+  </si>
+  <si>
+    <t>level-m9</t>
+  </si>
+  <si>
+    <t>level-m10</t>
+  </si>
+  <si>
+    <t>level-m11</t>
+  </si>
+  <si>
+    <t>level-m12</t>
+  </si>
+  <si>
+    <t>level-m13</t>
   </si>
 </sst>
 </file>
@@ -235,18 +274,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -519,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,6 +979,149 @@
         <v>31</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sty/Documents/unity/BlockDisappear/BlockDisappear/docments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shitianyun/Documents/BlockDisappear/BlockDisappear/docments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19F1049-2E3D-A647-958B-76F411914524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levelconfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,13 +203,38 @@
   </si>
   <si>
     <t>level-m13</t>
+  </si>
+  <si>
+    <t>Level-move-a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a1</t>
+  </si>
+  <si>
+    <t>Level-move-a2</t>
+  </si>
+  <si>
+    <t>Level-move-a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +268,12 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,13 +295,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -279,6 +312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -546,19 +582,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -572,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -583,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -594,7 +630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -605,7 +641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -616,7 +652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -627,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -660,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -671,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -682,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -693,7 +729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -704,7 +740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -715,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -726,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -737,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -748,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -759,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -770,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -781,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -792,7 +828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -803,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -814,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -825,7 +861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -836,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -847,7 +883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -858,7 +894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -869,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -880,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -891,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -902,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -913,7 +949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -924,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -935,7 +971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -946,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -957,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -968,7 +1004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -979,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -990,7 +1026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1001,7 +1037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1012,7 +1048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1023,7 +1059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1034,7 +1070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1045,7 +1081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1056,7 +1092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1067,7 +1103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1078,7 +1114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1089,7 +1125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1100,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1111,7 +1147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1120,6 +1156,83 @@
       </c>
       <c r="C51" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shitianyun/Documents/BlockDisappear/BlockDisappear/docments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19F1049-2E3D-A647-958B-76F411914524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D544A54-A273-2A42-8FEC-EA78C7F929BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23180" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levelconfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,36 +205,55 @@
     <t>level-m13</t>
   </si>
   <si>
-    <t>Level-move-a0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a1</t>
-  </si>
-  <si>
-    <t>Level-move-a2</t>
-  </si>
-  <si>
-    <t>Level-move-a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a6</t>
+    <t>Le_move-a10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,11 +286,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -295,14 +309,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -583,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1165,8 +1178,8 @@
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>56</v>
+      <c r="C52" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1176,8 +1189,8 @@
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>57</v>
+      <c r="C53" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1187,8 +1200,8 @@
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>58</v>
+      <c r="C54" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1198,8 +1211,8 @@
       <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>59</v>
+      <c r="C55" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1209,8 +1222,8 @@
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>60</v>
+      <c r="C56" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1220,8 +1233,8 @@
       <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
+      <c r="C57" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1231,8 +1244,52 @@
       <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>62</v>
+      <c r="C58" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levelconfig.xlsx
+++ b/BlockDisappear/docments/levelconfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shitianyun/Documents/BlockDisappear/BlockDisappear/docments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D544A54-A273-2A42-8FEC-EA78C7F929BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FED52A-3A6E-2A45-8B1A-DDD731D8BFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23180" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,9 +68,6 @@
     <t>Level-e1</t>
   </si>
   <si>
-    <t>Level5</t>
-  </si>
-  <si>
     <t>Level6</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
   </si>
   <si>
     <t>Level3</t>
-  </si>
-  <si>
-    <t>Level-c3-2-0922</t>
-  </si>
-  <si>
-    <t>Level-c3-4-0920</t>
   </si>
   <si>
     <t>Level7</t>
@@ -309,13 +300,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -609,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -623,7 +615,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -640,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -651,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -662,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -739,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -750,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -772,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -783,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -794,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -805,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -816,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -827,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -838,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -849,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -860,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -871,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -882,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -893,7 +885,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -904,7 +896,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -915,7 +907,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -926,7 +918,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -937,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -948,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -959,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -970,7 +962,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -981,7 +973,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -992,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1003,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1014,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1025,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1036,7 +1028,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1047,7 +1039,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1058,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1069,7 +1061,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1080,7 +1072,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1091,7 +1083,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1102,7 +1094,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1113,7 +1105,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1123,8 +1115,8 @@
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>51</v>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1135,7 +1127,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1146,7 +1138,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1157,7 +1149,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1168,132 +1160,100 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>58</v>
+      <c r="C53" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1">
-        <v>58</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1">
-        <v>59</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1">
-        <v>60</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>